--- a/SWMS_2/Resources/invoices/INV-3.xlsx
+++ b/SWMS_2/Resources/invoices/INV-3.xlsx
@@ -149,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,18 +157,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,198 +489,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="I17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="I18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="3">
         <v>885</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D11:I11"/>
+  <mergeCells count="10">
+    <mergeCell ref="B11:H11"/>
     <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
